--- a/helper/output.xlsx
+++ b/helper/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -129,48 +129,6 @@
   </si>
   <si>
     <t>Call back later</t>
-  </si>
-  <si>
-    <t>02:43:53pm</t>
-  </si>
-  <si>
-    <t>TAT-UM-90</t>
-  </si>
-  <si>
-    <t>Bajaj</t>
-  </si>
-  <si>
-    <t>sumaiya</t>
-  </si>
-  <si>
-    <t>J&amp;K</t>
-  </si>
-  <si>
-    <t>Srinagar</t>
-  </si>
-  <si>
-    <t>mansha@um.com</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>AAP2356</t>
-  </si>
-  <si>
-    <t>Wrong number</t>
-  </si>
-  <si>
-    <t>no comments</t>
-  </si>
-  <si>
-    <t>TAT-UM-45</t>
-  </si>
-  <si>
-    <t>BIRLA</t>
-  </si>
-  <si>
-    <t>Switch Off</t>
   </si>
 </sst>
 </file>
@@ -510,7 +468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,148 +618,6 @@
         <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3">
-        <v>190003</v>
-      </c>
-      <c r="J3">
-        <v>178966</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>12000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>21190</v>
-      </c>
-      <c r="J4">
-        <v>12564</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>23445678</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4">
-        <v>500</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/helper/output.xlsx
+++ b/helper/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -87,48 +87,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>2023/12/23</t>
-  </si>
-  <si>
-    <t>02:41:00pm</t>
-  </si>
-  <si>
-    <t>TAT-UM-9</t>
-  </si>
-  <si>
-    <t>TATA</t>
-  </si>
-  <si>
-    <t>sir</t>
-  </si>
-  <si>
-    <t>delhi</t>
-  </si>
-  <si>
-    <t>sir@123</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>10L</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>ZXR123</t>
-  </si>
-  <si>
-    <t>5y</t>
-  </si>
-  <si>
-    <t>2year</t>
-  </si>
-  <si>
-    <t>Call back later</t>
   </si>
 </sst>
 </file>
@@ -468,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,77 +506,6 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <v>21190</v>
-      </c>
-      <c r="J2">
-        <v>12564</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2">
-        <v>23445678</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2">
-        <v>500</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
